--- a/data/Subset1_WithDialogActs/Video Mosiac 11th grade World Series.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosiac 11th grade World Series.xlsx_with_dialog_acts.xlsx
@@ -579,12 +579,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1695,12 +1695,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2091,12 +2091,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2199,12 +2199,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4971,12 +4971,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5079,12 +5079,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5907,12 +5907,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6339,12 +6339,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6555,12 +6555,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6807,12 +6807,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6879,12 +6879,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7131,12 +7131,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7383,12 +7383,12 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7455,12 +7455,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7707,12 +7707,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7851,12 +7851,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8391,12 +8391,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8463,12 +8463,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9759,12 +9759,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9939,12 +9939,12 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10083,12 +10083,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10191,12 +10191,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10227,12 +10227,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10299,12 +10299,12 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10515,12 +10515,12 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11487,12 +11487,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11775,12 +11775,12 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11919,12 +11919,12 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12027,12 +12027,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12279,12 +12279,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12567,12 +12567,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12855,12 +12855,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13035,12 +13035,12 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13395,12 +13395,12 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13503,12 +13503,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14295,12 +14295,12 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14439,12 +14439,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14799,12 +14799,12 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15591,12 +15591,12 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15951,12 +15951,12 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15987,12 +15987,12 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16599,12 +16599,12 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16923,12 +16923,12 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16995,12 +16995,12 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17103,12 +17103,12 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17175,12 +17175,12 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17643,12 +17643,12 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17787,12 +17787,12 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18507,12 +18507,12 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18831,12 +18831,12 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18867,12 +18867,12 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18903,12 +18903,12 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20019,12 +20019,12 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20415,12 +20415,12 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20487,12 +20487,12 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20919,12 +20919,12 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21027,12 +21027,12 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21387,12 +21387,12 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21891,12 +21891,12 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22035,12 +22035,12 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22503,12 +22503,12 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22539,12 +22539,12 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23475,12 +23475,12 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23511,12 +23511,12 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23727,12 +23727,12 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23943,12 +23943,12 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24231,12 +24231,12 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24591,12 +24591,12 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24699,12 +24699,12 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25635,12 +25635,12 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25851,12 +25851,12 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25959,12 +25959,12 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26031,12 +26031,12 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26103,12 +26103,12 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26427,12 +26427,12 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26715,12 +26715,12 @@
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26787,12 +26787,12 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27075,12 +27075,12 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27687,12 +27687,12 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27867,12 +27867,12 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28191,12 +28191,12 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28371,12 +28371,12 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28587,12 +28587,12 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28695,12 +28695,12 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28983,12 +28983,12 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29631,12 +29631,12 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29739,12 +29739,12 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30015,12 +30015,12 @@
       <c r="H822" t="inlineStr"/>
       <c r="I822" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30303,12 +30303,12 @@
       <c r="H831" t="inlineStr"/>
       <c r="I831" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30687,12 +30687,12 @@
       <c r="H843" t="inlineStr"/>
       <c r="I843" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30879,12 +30879,12 @@
       <c r="H849" t="inlineStr"/>
       <c r="I849" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31711,12 +31711,12 @@
       <c r="H875" t="inlineStr"/>
       <c r="I875" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31999,12 +31999,12 @@
       <c r="H884" t="inlineStr"/>
       <c r="I884" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32479,12 +32479,12 @@
       <c r="H899" t="inlineStr"/>
       <c r="I899" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32511,12 +32511,12 @@
       <c r="H900" t="inlineStr"/>
       <c r="I900" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32639,12 +32639,12 @@
       <c r="H904" t="inlineStr"/>
       <c r="I904" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32671,12 +32671,12 @@
       <c r="H905" t="inlineStr"/>
       <c r="I905" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32863,12 +32863,12 @@
       <c r="H911" t="inlineStr"/>
       <c r="I911" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32959,12 +32959,12 @@
       <c r="H914" t="inlineStr"/>
       <c r="I914" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33247,12 +33247,12 @@
       <c r="H923" t="inlineStr"/>
       <c r="I923" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33535,12 +33535,12 @@
       <c r="H932" t="inlineStr"/>
       <c r="I932" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33695,12 +33695,12 @@
       <c r="H937" t="inlineStr"/>
       <c r="I937" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33887,12 +33887,12 @@
       <c r="H943" t="inlineStr"/>
       <c r="I943" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34111,12 +34111,12 @@
       <c r="H950" t="inlineStr"/>
       <c r="I950" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34367,12 +34367,12 @@
       <c r="H958" t="inlineStr"/>
       <c r="I958" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J958" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34591,12 +34591,12 @@
       <c r="H965" t="inlineStr"/>
       <c r="I965" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34751,12 +34751,12 @@
       <c r="H970" t="inlineStr"/>
       <c r="I970" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J970" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34847,12 +34847,12 @@
       <c r="H973" t="inlineStr"/>
       <c r="I973" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J973" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34975,12 +34975,12 @@
       <c r="H977" t="inlineStr"/>
       <c r="I977" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35551,12 +35551,12 @@
       <c r="H995" t="inlineStr"/>
       <c r="I995" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J995" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35775,12 +35775,12 @@
       <c r="H1002" t="inlineStr"/>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1002" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -36063,12 +36063,12 @@
       <c r="H1011" t="inlineStr"/>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1011" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -36319,12 +36319,12 @@
       <c r="H1019" t="inlineStr"/>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36671,12 +36671,12 @@
       <c r="H1030" t="inlineStr"/>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1030" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36763,12 +36763,12 @@
       <c r="H1033" t="inlineStr"/>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1033" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36827,12 +36827,12 @@
       <c r="H1035" t="inlineStr"/>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1035" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37115,12 +37115,12 @@
       <c r="H1044" t="inlineStr"/>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1044" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37179,12 +37179,12 @@
       <c r="H1046" t="inlineStr"/>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1046" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37335,12 +37335,12 @@
       <c r="H1051" t="inlineStr"/>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1051" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37391,12 +37391,12 @@
       <c r="H1053" t="inlineStr"/>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -37487,12 +37487,12 @@
       <c r="H1056" t="inlineStr"/>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1056" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -38447,12 +38447,12 @@
       <c r="H1086" t="inlineStr"/>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39183,12 +39183,12 @@
       <c r="H1109" t="inlineStr"/>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1109" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39727,12 +39727,12 @@
       <c r="H1126" t="inlineStr"/>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -40047,12 +40047,12 @@
       <c r="H1136" t="inlineStr"/>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1136" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40175,12 +40175,12 @@
       <c r="H1140" t="inlineStr"/>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1140" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40559,12 +40559,12 @@
       <c r="H1152" t="inlineStr"/>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -40591,12 +40591,12 @@
       <c r="H1153" t="inlineStr"/>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -41167,12 +41167,12 @@
       <c r="H1171" t="inlineStr"/>
       <c r="I1171" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1171" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -41295,12 +41295,12 @@
       <c r="H1175" t="inlineStr"/>
       <c r="I1175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -41935,12 +41935,12 @@
       <c r="H1195" t="inlineStr"/>
       <c r="I1195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -42063,12 +42063,12 @@
       <c r="H1199" t="inlineStr"/>
       <c r="I1199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42191,12 +42191,12 @@
       <c r="H1203" t="inlineStr"/>
       <c r="I1203" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1203" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42447,12 +42447,12 @@
       <c r="H1211" t="inlineStr"/>
       <c r="I1211" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1211" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42671,12 +42671,12 @@
       <c r="H1218" t="inlineStr"/>
       <c r="I1218" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1218" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42735,12 +42735,12 @@
       <c r="H1220" t="inlineStr"/>
       <c r="I1220" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1220" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42799,12 +42799,12 @@
       <c r="H1222" t="inlineStr"/>
       <c r="I1222" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1222" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -43087,12 +43087,12 @@
       <c r="H1231" t="inlineStr"/>
       <c r="I1231" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1231" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43759,12 +43759,12 @@
       <c r="H1252" t="inlineStr"/>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44015,12 +44015,12 @@
       <c r="H1260" t="inlineStr"/>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44239,12 +44239,12 @@
       <c r="H1267" t="inlineStr"/>
       <c r="I1267" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1267" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -45103,12 +45103,12 @@
       <c r="H1294" t="inlineStr"/>
       <c r="I1294" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1294" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45263,12 +45263,12 @@
       <c r="H1299" t="inlineStr"/>
       <c r="I1299" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1299" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -45519,12 +45519,12 @@
       <c r="H1307" t="inlineStr"/>
       <c r="I1307" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1307" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45551,12 +45551,12 @@
       <c r="H1308" t="inlineStr"/>
       <c r="I1308" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1308" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -45615,12 +45615,12 @@
       <c r="H1310" t="inlineStr"/>
       <c r="I1310" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1310" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45647,12 +45647,12 @@
       <c r="H1311" t="inlineStr"/>
       <c r="I1311" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1311" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45935,12 +45935,12 @@
       <c r="H1320" t="inlineStr"/>
       <c r="I1320" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1320" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -45967,12 +45967,12 @@
       <c r="H1321" t="inlineStr"/>
       <c r="I1321" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1321" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -46095,12 +46095,12 @@
       <c r="H1325" t="inlineStr"/>
       <c r="I1325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -46159,12 +46159,12 @@
       <c r="H1327" t="inlineStr"/>
       <c r="I1327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -46191,12 +46191,12 @@
       <c r="H1328" t="inlineStr"/>
       <c r="I1328" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1328" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -46351,12 +46351,12 @@
       <c r="H1333" t="inlineStr"/>
       <c r="I1333" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1333" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46831,12 +46831,12 @@
       <c r="H1348" t="inlineStr"/>
       <c r="I1348" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1348" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -47311,12 +47311,12 @@
       <c r="H1363" t="inlineStr"/>
       <c r="I1363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -47343,12 +47343,12 @@
       <c r="H1364" t="inlineStr"/>
       <c r="I1364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -47823,12 +47823,12 @@
       <c r="H1379" t="inlineStr"/>
       <c r="I1379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -48111,12 +48111,12 @@
       <c r="H1388" t="inlineStr"/>
       <c r="I1388" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1388" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -48143,12 +48143,12 @@
       <c r="H1389" t="inlineStr"/>
       <c r="I1389" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1389" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -48495,12 +48495,12 @@
       <c r="H1400" t="inlineStr"/>
       <c r="I1400" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1400" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -48783,12 +48783,12 @@
       <c r="H1409" t="inlineStr"/>
       <c r="I1409" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1409" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -48847,12 +48847,12 @@
       <c r="H1411" t="inlineStr"/>
       <c r="I1411" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1411" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -49135,12 +49135,12 @@
       <c r="H1420" t="inlineStr"/>
       <c r="I1420" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1420" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49231,12 +49231,12 @@
       <c r="H1423" t="inlineStr"/>
       <c r="I1423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -49359,12 +49359,12 @@
       <c r="H1427" t="inlineStr"/>
       <c r="I1427" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1427" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -49487,12 +49487,12 @@
       <c r="H1431" t="inlineStr"/>
       <c r="I1431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -49775,12 +49775,12 @@
       <c r="H1440" t="inlineStr"/>
       <c r="I1440" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1440" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -50127,12 +50127,12 @@
       <c r="H1451" t="inlineStr"/>
       <c r="I1451" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1451" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -50223,12 +50223,12 @@
       <c r="H1454" t="inlineStr"/>
       <c r="I1454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -50351,12 +50351,12 @@
       <c r="H1458" t="inlineStr"/>
       <c r="I1458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -50543,12 +50543,12 @@
       <c r="H1464" t="inlineStr"/>
       <c r="I1464" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1464" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -50607,12 +50607,12 @@
       <c r="H1466" t="inlineStr"/>
       <c r="I1466" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1466" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
